--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T09:35:07+00:00</t>
+    <t>2025-10-28T11:41:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T11:41:28+00:00</t>
+    <t>2025-10-28T14:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T14:16:13+00:00</t>
+    <t>2025-10-28T15:15:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:15:51+00:00</t>
+    <t>2025-10-29T10:18:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T10:18:40+00:00</t>
+    <t>2025-10-29T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T11:46:56+00:00</t>
+    <t>2025-10-29T12:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T12:55:39+00:00</t>
+    <t>2025-10-29T15:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:03:41+00:00</t>
+    <t>2025-10-30T13:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T13:09:51+00:00</t>
+    <t>2025-10-30T14:07:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:07:11+00:00</t>
+    <t>2025-10-30T14:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:16:37+00:00</t>
+    <t>2025-10-30T15:20:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T15:20:59+00:00</t>
+    <t>2025-10-30T16:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:36:55+00:00</t>
+    <t>2025-10-30T16:59:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:59:08+00:00</t>
+    <t>2025-11-03T11:12:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:12:25+00:00</t>
+    <t>2025-11-03T11:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:13:02+00:00</t>
+    <t>2025-11-03T13:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="98">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T13:49:33+00:00</t>
+    <t>2025-11-03T18:48:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -265,6 +265,56 @@
   </si>
   <si>
     <t>Nom de la zone d’hébergement des lits.</t>
+  </si>
+  <si>
+    <t>LieuRealisationOffre.OffreOperationnelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/OffreOperationnelle
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe OffreOperationnelle</t>
+  </si>
+  <si>
+    <t>LieuRealisationOffre.CapacitePriseCharge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/CapacitePriseCharge
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe CapacitePriseCharge</t>
+  </si>
+  <si>
+    <t>LieuRealisationOffre.Lieu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Lieu
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe Lieu</t>
+  </si>
+  <si>
+    <t>LieuRealisationOffre.EquipementSpecifique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/EquipementSpecifique
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe EquipementSpecifique</t>
+  </si>
+  <si>
+    <t>LieuRealisationOffre.CapaciteHabitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/CapaciteHabitation
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe CapaciteHabitation</t>
   </si>
 </sst>
 </file>
@@ -569,7 +619,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -578,8 +628,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.3125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.3125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.02734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.02734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -588,7 +638,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="7.9765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="63.59765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -609,7 +659,7 @@
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.3125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.02734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -1025,6 +1075,506 @@
         <v>71</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T18:48:51+00:00</t>
+    <t>2025-11-04T13:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T13:35:30+00:00</t>
+    <t>2025-11-04T14:33:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T14:33:37+00:00</t>
+    <t>2025-11-05T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T10:41:12+00:00</t>
+    <t>2025-11-07T16:48:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T16:48:20+00:00</t>
+    <t>2025-11-14T16:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:26:13+00:00</t>
+    <t>2025-11-14T16:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:42:42+00:00</t>
+    <t>2025-11-25T14:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:31:44+00:00</t>
+    <t>2025-11-25T14:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:47:14+00:00</t>
+    <t>2025-11-27T15:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T15:07:49+00:00</t>
+    <t>2025-11-27T17:02:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:02:40+00:00</t>
+    <t>2025-12-02T09:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T09:57:01+00:00</t>
+    <t>2025-12-02T14:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:07:59+00:00</t>
+    <t>2025-12-02T14:23:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:23:57+00:00</t>
+    <t>2025-12-02T14:53:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
+++ b/ML/ig/StructureDefinition-LieuRealisationOffre.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:53:18+00:00</t>
+    <t>2025-12-02T15:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
